--- a/test_files/slide_lister_output.xlsx
+++ b/test_files/slide_lister_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,16 @@
           <t>sb_label</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rel_path</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -541,6 +551,15 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>OS-1.ndpi</t>
+        </is>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("OS-1.ndpi", "Link")</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -561,6 +580,15 @@
       </c>
       <c r="F3" t="n">
         <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>OS-2.ndpi</t>
+        </is>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("OS-2.ndpi", "Link")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/test_files/slide_lister_output.xlsx
+++ b/test_files/slide_lister_output.xlsx
@@ -2,29 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="slides" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pages" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -38,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +75,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,104 +457,109 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>root</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>rotation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>mirror</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>zoom_point</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>crop</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>panel_size</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>fig_type</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>add_inset</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>inset_size</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>zoom_real_size</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>scale_bar</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>inset_scale_bar</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>sb_label</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>wb_point</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>rel_path</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -551,18 +578,36 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>322.7758036943744</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(0.40960778026855466, 0.6211380946180556)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>((0.42772346390625, 0.5932443202907987), 0.2102367124761329, 0.13386789237178517)</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>(0.3422886168359375, 0.7030490112630209)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>OS-1.ndpi</t>
         </is>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f>HYPERLINK("OS-1.ndpi", "Link")</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,12 +626,12 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>OS-2.ndpi</t>
         </is>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f>HYPERLINK("OS-2.ndpi", "Link")</f>
         <v/>
       </c>
@@ -611,54 +656,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>title2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>title3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>footer</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>filename</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>figsize</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>n_x</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>n_y</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">

--- a/test_files/slide_lister_output.xlsx
+++ b/test_files/slide_lister_output.xlsx
@@ -579,21 +579,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.7758036943744</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(0.40960778026855466, 0.6211380946180556)</t>
+          <t>(2.1943359314891498e-08, 6.0167100760837555e-09)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>((0.42772346390625, 0.5932443202907987), 0.2102367124761329, 0.13386789237178517)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>(0.3422886168359375, 0.7030490112630209)</t>
+          <t>((0.5616008712109375, 0.41987101660427517), 0.3282078920214844, 0.2228394258734809)</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -625,6 +620,14 @@
       </c>
       <c r="F3" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>((0.48318689522901964, 0.5154225310384115), 1, 1)</t>
+        </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
